--- a/results/Outside.NoTexture.rotation.xlsx
+++ b/results/Outside.NoTexture.rotation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -67,6 +67,21 @@
   </si>
   <si>
     <t>PCA</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>min-er</t>
+  </si>
+  <si>
+    <t>pct</t>
+  </si>
+  <si>
+    <t>fm2d</t>
+  </si>
+  <si>
+    <t>fvr</t>
   </si>
 </sst>
 </file>
@@ -547,11 +562,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="497422352"/>
-        <c:axId val="497416864"/>
+        <c:axId val="194731200"/>
+        <c:axId val="194737080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="497422352"/>
+        <c:axId val="194731200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +604,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497416864"/>
+        <c:crossAx val="194737080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -597,7 +612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="497416864"/>
+        <c:axId val="194737080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -643,7 +658,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497422352"/>
+        <c:crossAx val="194731200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1542,11 +1557,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="497423528"/>
-        <c:axId val="497418040"/>
+        <c:axId val="196389944"/>
+        <c:axId val="196387200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="497423528"/>
+        <c:axId val="196389944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1555,7 +1570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="497418040"/>
+        <c:crossAx val="196387200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1563,7 +1578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="497418040"/>
+        <c:axId val="196387200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1576,7 +1591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="497423528"/>
+        <c:crossAx val="196389944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2023,11 +2038,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="497421960"/>
-        <c:axId val="497423136"/>
+        <c:axId val="196392688"/>
+        <c:axId val="196391512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="497421960"/>
+        <c:axId val="196392688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,7 +2080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497423136"/>
+        <c:crossAx val="196391512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2073,7 +2088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="497423136"/>
+        <c:axId val="196391512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2119,7 +2134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497421960"/>
+        <c:crossAx val="196392688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2174,7 +2189,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2214,15 +2229,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>204786</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>157161</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2242,7 +2257,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="6334125" y="4781549"/>
+    <xdr:pos x="6334125" y="800099"/>
     <xdr:ext cx="6191249" cy="4219575"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2553,10 +2568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2988,7 +3003,7 @@
         <v>25.064900000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3018,7 +3033,7 @@
         <v>1910.63</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3048,7 +3063,7 @@
         <v>88.881500000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3078,7 +3093,7 @@
         <v>47.816299999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3108,7 +3123,7 @@
         <v>1627.43</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3138,7 +3153,7 @@
         <v>35.518900000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3168,7 +3183,7 @@
         <v>24.472999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3198,7 +3213,7 @@
         <v>42.5244</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3228,7 +3243,7 @@
         <v>17.9726</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3258,7 +3273,7 @@
         <v>5.5258599999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3288,7 +3303,7 @@
         <v>2.6834699999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3318,7 +3333,7 @@
         <v>33.239100000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3348,7 +3363,7 @@
         <v>35.770899999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3379,8 +3394,26 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
+      <c r="L30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3420,346 +3453,562 @@
         <f>MIN(G31:I31)</f>
         <v>4.3228327677895251E-2</v>
       </c>
+      <c r="L31">
+        <f>MIN(C31:J31)</f>
+        <v>3.7690112676409919E-2</v>
+      </c>
+      <c r="M31">
+        <f>IF(C31=$L31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:Q46" si="2">IF(D31=$L31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>IF(J31=$L31,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
         <v>2</v>
       </c>
       <c r="B32">
-        <f>B6</f>
+        <f t="shared" ref="B32:B39" si="3">B6</f>
         <v>184.43600000000001</v>
       </c>
       <c r="C32">
-        <f>C6/$B32</f>
+        <f t="shared" ref="C32:I39" si="4">C6/$B32</f>
         <v>2.2987486174065801E-2</v>
       </c>
       <c r="D32">
-        <f>D6/$B32</f>
+        <f t="shared" si="4"/>
         <v>2.1563252293478496E-2</v>
       </c>
       <c r="E32">
-        <f>E6/$B32</f>
+        <f t="shared" si="4"/>
         <v>2.8016222429460627E-2</v>
       </c>
       <c r="F32">
-        <f>F6/$B32</f>
+        <f t="shared" si="4"/>
         <v>1.0600045544253831</v>
       </c>
       <c r="G32">
-        <f>G6/$B32</f>
+        <f t="shared" si="4"/>
         <v>2.1528551909605498E-2</v>
       </c>
       <c r="H32">
-        <f>H6/$B32</f>
+        <f t="shared" si="4"/>
         <v>2.8099720228155021E-2</v>
       </c>
       <c r="I32">
-        <f>I6/$B32</f>
+        <f t="shared" si="4"/>
         <v>3.3824470276952436E-2</v>
       </c>
       <c r="J32">
-        <f t="shared" ref="J32:J48" si="2">MIN(G32:I32)</f>
+        <f t="shared" ref="J32:J48" si="5">MIN(G32:I32)</f>
         <v>2.1528551909605498E-2</v>
       </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L48" si="6">MIN(C32:J32)</f>
+        <v>2.1528551909605498E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:P48" si="7">IF(C32=$L32,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q48" si="8">IF(J32=$L32,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" ref="A33:A48" si="3">A32+1</f>
+        <f t="shared" ref="A33:A48" si="9">A32+1</f>
         <v>3</v>
       </c>
       <c r="B33">
-        <f>B7</f>
+        <f t="shared" si="3"/>
         <v>212.49100000000001</v>
       </c>
       <c r="C33">
-        <f>C7/$B33</f>
+        <f t="shared" si="4"/>
         <v>0.16270194972963559</v>
       </c>
       <c r="D33">
-        <f>D7/$B33</f>
+        <f t="shared" si="4"/>
         <v>0.12852403160604448</v>
       </c>
       <c r="E33">
-        <f>E7/$B33</f>
+        <f t="shared" si="4"/>
         <v>0.11287113336564843</v>
       </c>
       <c r="F33">
-        <f>F7/$B33</f>
+        <f t="shared" si="4"/>
         <v>0.99653161780969535</v>
       </c>
       <c r="G33">
-        <f>G7/$B33</f>
+        <f t="shared" si="4"/>
         <v>0.13458546479615605</v>
       </c>
       <c r="H33">
-        <f>H7/$B33</f>
+        <f t="shared" si="4"/>
         <v>0.11816265159465576</v>
       </c>
       <c r="I33">
-        <f>I7/$B33</f>
+        <f t="shared" si="4"/>
         <v>9.9919996611621181E-2</v>
       </c>
       <c r="J33">
+        <f t="shared" si="5"/>
+        <v>9.9919996611621181E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>9.9919996611621181E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="2"/>
-        <v>9.9919996611621181E-2</v>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="B34">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <f>B8</f>
         <v>17.280899999999999</v>
       </c>
       <c r="C34">
-        <f>C8/$B34</f>
+        <f t="shared" si="4"/>
         <v>0.13238488736119067</v>
       </c>
       <c r="D34">
-        <f>D8/$B34</f>
+        <f t="shared" si="4"/>
         <v>0.21879473869995197</v>
       </c>
       <c r="E34">
-        <f>E8/$B34</f>
+        <f t="shared" si="4"/>
         <v>0.12120028470739373</v>
       </c>
       <c r="F34">
-        <f>F8/$B34</f>
+        <f t="shared" si="4"/>
         <v>0.98248933793957505</v>
       </c>
       <c r="G34">
-        <f>G8/$B34</f>
+        <f t="shared" si="4"/>
         <v>0.13220839192403172</v>
       </c>
       <c r="H34">
-        <f>H8/$B34</f>
+        <f t="shared" si="4"/>
         <v>0.17124165986725229</v>
       </c>
       <c r="I34">
-        <f>I8/$B34</f>
+        <f t="shared" si="4"/>
         <v>0.12346868508005948</v>
       </c>
       <c r="J34">
+        <f t="shared" si="5"/>
+        <v>0.12346868508005948</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
+        <v>0.12120028470739373</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="2"/>
-        <v>0.12346868508005948</v>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B35">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B35">
-        <f>B9</f>
         <v>5.7844699999999998</v>
       </c>
       <c r="C35">
-        <f>C9/$B35</f>
+        <f t="shared" si="4"/>
         <v>1.2911589134354575</v>
       </c>
       <c r="D35">
-        <f>D9/$B35</f>
+        <f t="shared" si="4"/>
         <v>1.2329634348522855</v>
       </c>
       <c r="E35">
-        <f>E9/$B35</f>
+        <f t="shared" si="4"/>
         <v>0.95996521721091121</v>
       </c>
       <c r="F35">
-        <f>F9/$B35</f>
+        <f t="shared" si="4"/>
         <v>1.0028766680439176</v>
       </c>
       <c r="G35">
-        <f>G9/$B35</f>
+        <f t="shared" si="4"/>
         <v>0.78873777545738855</v>
       </c>
       <c r="H35">
-        <f>H9/$B35</f>
+        <f t="shared" si="4"/>
         <v>1.1184222582189898</v>
       </c>
       <c r="I35">
-        <f>I9/$B35</f>
+        <f t="shared" si="4"/>
         <v>1.0619036834835345</v>
       </c>
       <c r="J35">
+        <f t="shared" si="5"/>
+        <v>0.78873777545738855</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="6"/>
+        <v>0.78873777545738855</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="2"/>
-        <v>0.78873777545738855</v>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="B36">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <f>B10</f>
         <v>35.195300000000003</v>
       </c>
       <c r="C36">
-        <f>C10/$B36</f>
+        <f t="shared" si="4"/>
         <v>0.87204257386639683</v>
       </c>
       <c r="D36">
-        <f>D10/$B36</f>
+        <f t="shared" si="4"/>
         <v>0.85546649694703547</v>
       </c>
       <c r="E36">
-        <f>E10/$B36</f>
+        <f t="shared" si="4"/>
         <v>0.80601102988183071</v>
       </c>
       <c r="F36">
-        <f>F10/$B36</f>
+        <f t="shared" si="4"/>
         <v>0.9859952891437207</v>
       </c>
       <c r="G36">
-        <f>G10/$B36</f>
+        <f t="shared" si="4"/>
         <v>0.84684886902512546</v>
       </c>
       <c r="H36">
-        <f>H10/$B36</f>
+        <f t="shared" si="4"/>
         <v>0.84113219662852701</v>
       </c>
       <c r="I36">
-        <f>I10/$B36</f>
+        <f t="shared" si="4"/>
         <v>0.76006171278551382</v>
       </c>
       <c r="J36">
+        <f t="shared" si="5"/>
+        <v>0.76006171278551382</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>0.76006171278551382</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="2"/>
-        <v>0.76006171278551382</v>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="B37">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <f>B11</f>
         <v>63.046999999999997</v>
       </c>
       <c r="C37">
-        <f>C11/$B37</f>
+        <f t="shared" si="4"/>
         <v>1.0519596491506338</v>
       </c>
       <c r="D37">
-        <f>D11/$B37</f>
+        <f t="shared" si="4"/>
         <v>0.92506225514298868</v>
       </c>
       <c r="E37">
-        <f>E11/$B37</f>
+        <f t="shared" si="4"/>
         <v>0.96721017653496599</v>
       </c>
       <c r="F37">
-        <f>F11/$B37</f>
+        <f t="shared" si="4"/>
         <v>0.96878519199961943</v>
       </c>
       <c r="G37">
-        <f>G11/$B37</f>
+        <f t="shared" si="4"/>
         <v>0.93372880549431381</v>
       </c>
       <c r="H37">
-        <f>H11/$B37</f>
+        <f t="shared" si="4"/>
         <v>1.1181547099782703</v>
       </c>
       <c r="I37">
-        <f>I11/$B37</f>
+        <f t="shared" si="4"/>
         <v>1.0146081494757879</v>
       </c>
       <c r="J37">
+        <f t="shared" si="5"/>
+        <v>0.93372880549431381</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="6"/>
+        <v>0.92506225514298868</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="2"/>
-        <v>0.93372880549431381</v>
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="B38">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="B38">
-        <f>B12</f>
         <v>157.465</v>
       </c>
       <c r="C38">
-        <f>C12/$B38</f>
+        <f t="shared" si="4"/>
         <v>0.2240555043978027</v>
       </c>
       <c r="D38">
-        <f>D12/$B38</f>
+        <f t="shared" si="4"/>
         <v>0.47483123233734481</v>
       </c>
       <c r="E38">
-        <f>E12/$B38</f>
+        <f t="shared" si="4"/>
         <v>0.30074810275299274</v>
       </c>
       <c r="F38">
-        <f>F12/$B38</f>
+        <f t="shared" si="4"/>
         <v>0.98021782618359632</v>
       </c>
       <c r="G38">
-        <f>G12/$B38</f>
+        <f t="shared" si="4"/>
         <v>0.23407360365795576</v>
       </c>
       <c r="H38">
-        <f>H12/$B38</f>
+        <f t="shared" si="4"/>
         <v>0.25143301686088976</v>
       </c>
       <c r="I38">
-        <f>I12/$B38</f>
+        <f t="shared" si="4"/>
         <v>0.30100847807449271</v>
       </c>
       <c r="J38">
+        <f t="shared" si="5"/>
+        <v>0.23407360365795576</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>0.2240555043978027</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="2"/>
-        <v>0.23407360365795576</v>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="B39">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B39">
-        <f>B13</f>
         <v>65.134600000000006</v>
       </c>
       <c r="C39">
-        <f>C13/$B39</f>
+        <f t="shared" si="4"/>
         <v>4.7243861173631212E-2</v>
       </c>
       <c r="D39">
-        <f>D13/$B39</f>
+        <f t="shared" si="4"/>
         <v>5.3807653689436942E-2</v>
       </c>
       <c r="E39">
-        <f>E13/$B39</f>
+        <f t="shared" si="4"/>
         <v>4.8471319390922793E-2</v>
       </c>
       <c r="F39">
-        <f>F13/$B39</f>
+        <f t="shared" si="4"/>
         <v>0.99267823860129634</v>
       </c>
       <c r="G39">
-        <f>G13/$B39</f>
+        <f t="shared" si="4"/>
         <v>5.3044925431337563E-2</v>
       </c>
       <c r="H39">
-        <f>H13/$B39</f>
+        <f t="shared" si="4"/>
         <v>4.930067890184326E-2</v>
       </c>
       <c r="I39">
-        <f>I13/$B39</f>
+        <f t="shared" si="4"/>
         <v>4.4529942611146761E-2</v>
       </c>
       <c r="J39">
+        <f t="shared" si="5"/>
+        <v>4.4529942611146761E-2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>4.4529942611146761E-2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="2"/>
-        <v>4.4529942611146761E-2</v>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="B40">
@@ -3775,33 +4024,57 @@
         <v>0.98727773727588375</v>
       </c>
       <c r="E40">
-        <f>E16/$B40</f>
+        <f t="shared" ref="E40:I42" si="10">E16/$B40</f>
         <v>0.57792385918521172</v>
       </c>
       <c r="F40">
-        <f>F16/$B40</f>
+        <f t="shared" si="10"/>
         <v>1.0103844110269495</v>
       </c>
       <c r="G40">
-        <f>G16/$B40</f>
+        <f t="shared" si="10"/>
         <v>0.63648877411064009</v>
       </c>
       <c r="H40">
-        <f>H16/$B40</f>
+        <f t="shared" si="10"/>
         <v>0.84311680608928818</v>
       </c>
       <c r="I40">
-        <f>I16/$B40</f>
+        <f t="shared" si="10"/>
         <v>0.61942937636693896</v>
       </c>
       <c r="J40">
+        <f t="shared" si="5"/>
+        <v>0.61942937636693896</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="6"/>
+        <v>0.57792385918521172</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="2"/>
-        <v>0.61942937636693896</v>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="B41">
@@ -3817,33 +4090,57 @@
         <v>149.91841875509883</v>
       </c>
       <c r="E41">
-        <f>E17/$B41</f>
+        <f t="shared" si="10"/>
         <v>0.27204721216371591</v>
       </c>
       <c r="F41">
-        <f>F17/$B41</f>
+        <f t="shared" si="10"/>
         <v>1.0112043013830645</v>
       </c>
       <c r="G41">
-        <f>G17/$B41</f>
+        <f t="shared" si="10"/>
         <v>0.27729035766935267</v>
       </c>
       <c r="H41">
-        <f>H17/$B41</f>
+        <f t="shared" si="10"/>
         <v>100.73828641219043</v>
       </c>
       <c r="I41">
-        <f>I17/$B41</f>
+        <f t="shared" si="10"/>
         <v>45.576483609803113</v>
       </c>
       <c r="J41">
+        <f t="shared" si="5"/>
+        <v>0.27729035766935267</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="6"/>
+        <v>0.27204721216371591</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="2"/>
-        <v>0.27729035766935267</v>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="B42">
@@ -3859,280 +4156,534 @@
         <v>4.6130670073416931E-2</v>
       </c>
       <c r="E42">
-        <f>E18/$B42</f>
+        <f t="shared" si="10"/>
         <v>0.13602967381828351</v>
       </c>
       <c r="F42">
-        <f>F18/$B42</f>
+        <f t="shared" si="10"/>
         <v>1.0319876304260815</v>
       </c>
       <c r="G42">
-        <f>G18/$B42</f>
+        <f t="shared" si="10"/>
         <v>4.4634203845753166E-2</v>
       </c>
       <c r="H42">
-        <f>H18/$B42</f>
+        <f t="shared" si="10"/>
         <v>6.5104752087639745E-2</v>
       </c>
       <c r="I42">
-        <f>I18/$B42</f>
+        <f t="shared" si="10"/>
         <v>4.873343458546027E-2</v>
       </c>
       <c r="J42">
+        <f t="shared" si="5"/>
+        <v>4.4634203845753166E-2</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="6"/>
+        <v>4.4634203845753166E-2</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="2"/>
-        <v>4.4634203845753166E-2</v>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="B43">
-        <f>B21</f>
+        <f t="shared" ref="B43:B48" si="11">B21</f>
         <v>47.013300000000001</v>
       </c>
       <c r="C43">
-        <f>C21/$B43</f>
+        <f t="shared" ref="C43:I48" si="12">C21/$B43</f>
         <v>0.8530628566809817</v>
       </c>
       <c r="D43">
-        <f>D21/$B43</f>
+        <f t="shared" si="12"/>
         <v>0.95409384152995003</v>
       </c>
       <c r="E43">
-        <f>E21/$B43</f>
+        <f t="shared" si="12"/>
         <v>0.75401216251571357</v>
       </c>
       <c r="F43">
-        <f>F21/$B43</f>
+        <f t="shared" si="12"/>
         <v>1.0048794702775596</v>
       </c>
       <c r="G43">
-        <f>G21/$B43</f>
+        <f t="shared" si="12"/>
         <v>0.88107407903720858</v>
       </c>
       <c r="H43">
-        <f>H21/$B43</f>
+        <f t="shared" si="12"/>
         <v>0.91948235924727673</v>
       </c>
       <c r="I43">
-        <f>I21/$B43</f>
+        <f t="shared" si="12"/>
         <v>0.75550748405238521</v>
       </c>
       <c r="J43">
+        <f t="shared" si="5"/>
+        <v>0.75550748405238521</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="6"/>
+        <v>0.75401216251571357</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="2"/>
-        <v>0.75550748405238521</v>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="B44">
-        <f>B22</f>
+        <f t="shared" si="11"/>
         <v>57.2072</v>
       </c>
       <c r="C44">
-        <f>C22/$B44</f>
+        <f t="shared" si="12"/>
         <v>0.63272979624942316</v>
       </c>
       <c r="D44">
-        <f>D22/$B44</f>
+        <f t="shared" si="12"/>
         <v>65.473576752576591</v>
       </c>
       <c r="E44">
-        <f>E22/$B44</f>
+        <f t="shared" si="12"/>
         <v>0.46293298745612443</v>
       </c>
       <c r="F44">
-        <f>F22/$B44</f>
+        <f t="shared" si="12"/>
         <v>1.1062820763819938</v>
       </c>
       <c r="G44">
-        <f>G22/$B44</f>
+        <f t="shared" si="12"/>
         <v>0.52297962494231498</v>
       </c>
       <c r="H44">
-        <f>H22/$B44</f>
+        <f t="shared" si="12"/>
         <v>0.49393258191276623</v>
       </c>
       <c r="I44">
-        <f>I22/$B44</f>
+        <f t="shared" si="12"/>
         <v>0.42779580192703015</v>
       </c>
       <c r="J44">
+        <f t="shared" si="5"/>
+        <v>0.42779580192703015</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="6"/>
+        <v>0.42779580192703015</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="2"/>
-        <v>0.42779580192703015</v>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B45">
-        <f>B23</f>
+        <f t="shared" si="11"/>
         <v>83.832800000000006</v>
       </c>
       <c r="C45">
-        <f>C23/$B45</f>
+        <f t="shared" si="12"/>
         <v>0.68037092880113748</v>
       </c>
       <c r="D45">
-        <f>D23/$B45</f>
+        <f t="shared" si="12"/>
         <v>0.84395964348083319</v>
       </c>
       <c r="E45">
-        <f>E23/$B45</f>
+        <f t="shared" si="12"/>
         <v>1.3809153457835119</v>
       </c>
       <c r="F45">
-        <f>F23/$B45</f>
+        <f t="shared" si="12"/>
         <v>1.0136259316162646</v>
       </c>
       <c r="G45">
-        <f>G23/$B45</f>
+        <f t="shared" si="12"/>
         <v>1.1946636638642631</v>
       </c>
       <c r="H45">
-        <f>H23/$B45</f>
+        <f t="shared" si="12"/>
         <v>0.5857003464037942</v>
       </c>
       <c r="I45">
-        <f>I23/$B45</f>
+        <f t="shared" si="12"/>
         <v>0.50725253122882685</v>
       </c>
       <c r="J45">
+        <f t="shared" si="5"/>
+        <v>0.50725253122882685</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="6"/>
+        <v>0.50725253122882685</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="2"/>
-        <v>0.50725253122882685</v>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="B46">
-        <f>B24</f>
+        <f t="shared" si="11"/>
         <v>167.977</v>
       </c>
       <c r="C46">
-        <f>C24/$B46</f>
+        <f t="shared" si="12"/>
         <v>0.10195800615560463</v>
       </c>
       <c r="D46">
-        <f>D24/$B46</f>
+        <f t="shared" si="12"/>
         <v>0.31246242045041878</v>
       </c>
       <c r="E46">
-        <f>E24/$B46</f>
+        <f t="shared" si="12"/>
         <v>0.2695994094429594</v>
       </c>
       <c r="F46">
-        <f>F24/$B46</f>
+        <f t="shared" si="12"/>
         <v>0.96182810741946811</v>
       </c>
       <c r="G46">
-        <f>G24/$B46</f>
+        <f t="shared" si="12"/>
         <v>0.2123284735410205</v>
       </c>
       <c r="H46">
-        <f>H24/$B46</f>
+        <f t="shared" si="12"/>
         <v>0.11318573376116968</v>
       </c>
       <c r="I46">
-        <f>I24/$B46</f>
+        <f t="shared" si="12"/>
         <v>0.1069944099489811</v>
       </c>
       <c r="J46">
+        <f t="shared" si="5"/>
+        <v>0.1069944099489811</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="6"/>
+        <v>0.10195800615560463</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N46">
         <f t="shared" si="2"/>
-        <v>0.1069944099489811</v>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="B47">
-        <f>B25</f>
+        <f t="shared" si="11"/>
         <v>89.9619</v>
       </c>
       <c r="C47">
-        <f>C25/$B47</f>
+        <f t="shared" si="12"/>
         <v>7.0268191312099895E-2</v>
       </c>
       <c r="D47">
-        <f>D25/$B47</f>
+        <f t="shared" si="12"/>
         <v>0.36687197580309</v>
       </c>
       <c r="E47">
-        <f>E25/$B47</f>
+        <f t="shared" si="12"/>
         <v>0.17429378436871609</v>
       </c>
       <c r="F47">
-        <f>F25/$B47</f>
+        <f t="shared" si="12"/>
         <v>1.0146951098187122</v>
       </c>
       <c r="G47">
-        <f>G25/$B47</f>
+        <f t="shared" si="12"/>
         <v>8.637978966651437E-2</v>
       </c>
       <c r="H47">
-        <f>H25/$B47</f>
+        <f t="shared" si="12"/>
         <v>0.10990708288731117</v>
       </c>
       <c r="I47">
-        <f>I25/$B47</f>
+        <f t="shared" si="12"/>
         <v>6.1424447460536068E-2</v>
       </c>
       <c r="J47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>6.1424447460536068E-2</v>
       </c>
+      <c r="L47">
+        <f t="shared" si="6"/>
+        <v>6.1424447460536068E-2</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="B48">
-        <f>B26</f>
+        <f t="shared" si="11"/>
         <v>50.241599999999998</v>
       </c>
       <c r="C48">
-        <f>C26/$B48</f>
+        <f t="shared" si="12"/>
         <v>8.6290245533581736E-2</v>
       </c>
       <c r="D48">
-        <f>D26/$B48</f>
+        <f t="shared" si="12"/>
         <v>0.53009657335753635</v>
       </c>
       <c r="E48">
-        <f>E26/$B48</f>
+        <f t="shared" si="12"/>
         <v>5.7713329193337791E-2</v>
       </c>
       <c r="F48">
-        <f>F26/$B48</f>
+        <f t="shared" si="12"/>
         <v>0.99902670297124307</v>
       </c>
       <c r="G48">
-        <f>G26/$B48</f>
+        <f t="shared" si="12"/>
         <v>6.263634119932486E-2</v>
       </c>
       <c r="H48">
-        <f>H26/$B48</f>
+        <f t="shared" si="12"/>
         <v>7.2473209451928283E-2</v>
       </c>
       <c r="I48">
-        <f>I26/$B48</f>
+        <f t="shared" si="12"/>
         <v>5.3411316518582205E-2</v>
       </c>
       <c r="J48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>5.3411316518582205E-2</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="6"/>
+        <v>5.3411316518582205E-2</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <f>ROUND(AVERAGE(C31:C48)*1000,2)</f>
+        <v>497.83</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49:J49" si="13">ROUND(AVERAGE(D31:D48)*1000,2)</f>
+        <v>12411.23</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="13"/>
+        <v>414.87</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="13"/>
+        <v>1008.22</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="13"/>
+        <v>394.8</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="13"/>
+        <v>12823.42</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="13"/>
+        <v>8776.61</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="13"/>
+        <v>327.95</v>
+      </c>
+      <c r="L49" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49">
+        <f>AVERAGE(M31:M48)*100</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="N49">
+        <f t="shared" ref="N49:Q49" si="14">AVERAGE(N31:N48)*100</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="14"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="14"/>
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <f>ROUND(M49,2)</f>
+        <v>11.11</v>
+      </c>
+      <c r="N50">
+        <f t="shared" ref="N50:Q50" si="15">ROUND(N49,2)</f>
+        <v>5.56</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="15"/>
+        <v>27.78</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="15"/>
+        <v>55.56</v>
+      </c>
+      <c r="R50">
+        <f>SUM(M50:Q50)</f>
+        <v>100.01</v>
       </c>
     </row>
   </sheetData>
